--- a/biology/Médecine/Dépression_atypique/Dépression_atypique.xlsx
+++ b/biology/Médecine/Dépression_atypique/Dépression_atypique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_atypique</t>
+          <t>Dépression_atypique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dépression atypique se situe à peu près au même niveau que celui de la dysthymie, légèrement différente de la dépression, et est composée de symptômes similaires, mais est également caractérisée par une réactivité de l'humeur liée aux événements positifs. Les patients souffrant de mélancolie ne peuvent généralement être exposés aux humeurs positives, même lorsqu'un événement positif se déroule.  En outre, la dépression atypique est caractérisée par une humeur variable diminuée avec la réactivité d'humeur aux événements positifs, un gain de poids et de fatigue importants et une inquiétude prononcée[1].
-Malgré son nom, la dépression "atypique" est actuellement la dépression la plus répandue[2],[3] — plus de 40 % des patients sujets à la dépression peuvent également être classés comme étant sujet à la dépression atypique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dépression atypique se situe à peu près au même niveau que celui de la dysthymie, légèrement différente de la dépression, et est composée de symptômes similaires, mais est également caractérisée par une réactivité de l'humeur liée aux événements positifs. Les patients souffrant de mélancolie ne peuvent généralement être exposés aux humeurs positives, même lorsqu'un événement positif se déroule.  En outre, la dépression atypique est caractérisée par une humeur variable diminuée avec la réactivité d'humeur aux événements positifs, un gain de poids et de fatigue importants et une inquiétude prononcée.
+Malgré son nom, la dépression "atypique" est actuellement la dépression la plus répandue, — plus de 40 % des patients sujets à la dépression peuvent également être classés comme étant sujet à la dépression atypique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_atypique</t>
+          <t>Dépression_atypique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le DSM-5 classifie la dépression atypique dans le domaine des dépressions majeures accentuées d'un trouble du comportement et inclut les symptômes suivant :
 Réactivité de l'humeur (ex. : humeur accentuée en réponse à d'éventuels événements positifs) ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_atypique</t>
+          <t>Dépression_atypique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches montrent que les femmes sont plus prédisposées que les hommes à la dépression atypique. Les jeunes sont plus prédisposés à l'hypersomnie, mais les personnes âgées sont plus prédisposées à être polyphages[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches montrent que les femmes sont plus prédisposées que les hommes à la dépression atypique. Les jeunes sont plus prédisposés à l'hypersomnie, mais les personnes âgées sont plus prédisposées à être polyphages.
 </t>
         </is>
       </c>
